--- a/DB/tracking.xlsx
+++ b/DB/tracking.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\JavaScript_Note\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC38E57-CB94-481E-9AFD-E51F93708630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A2A80C-5C8D-4C74-A842-D80DBF538DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$2:$J$2</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Collections.json</t>
   </si>
@@ -67,13 +68,19 @@
   </si>
   <si>
     <t>chưa xong</t>
+  </si>
+  <si>
+    <t>contribute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +111,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +155,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -148,19 +187,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -442,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,4 +732,192 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024DA12C-11CE-4CC1-B34A-E7E450722B61}">
+  <dimension ref="A2:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>44863</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>44864</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>44865</v>
+      </c>
+      <c r="B5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>44866</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>44867</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>44868</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>44869</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>44870</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>44871</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>44872</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>44873</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>44874</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>44875</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>44876</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>44877</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>44878</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>44884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>44885</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DB/tracking.xlsx
+++ b/DB/tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\JavaScript_Note\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A2A80C-5C8D-4C74-A842-D80DBF538DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE08C21-5AD4-4F27-9059-174C538527A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -203,7 +203,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024DA12C-11CE-4CC1-B34A-E7E450722B61}">
-  <dimension ref="A2:B25"/>
+  <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>44877</v>
       </c>
@@ -872,45 +872,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>44878</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>44879</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>44880</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44881</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44882</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>44883</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44884</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>44885</v>
       </c>
